--- a/Start_up list(with contact details).xlsx
+++ b/Start_up list(with contact details).xlsx
@@ -1,30 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\ACIC\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -77,48 +68,48 @@
     <t>Mr. Rishiraj Agarwal</t>
   </si>
   <si>
+    <t>FarmaTech</t>
+  </si>
+  <si>
+    <t>Mr. Neelesh Kumar Yadav</t>
+  </si>
+  <si>
+    <t>Discount Bazar (Trackdeal)</t>
+  </si>
+  <si>
+    <t>Mr. Rajwardhan</t>
+  </si>
+  <si>
+    <t>Food O</t>
+  </si>
+  <si>
+    <t>Mr. Shubham Modi</t>
+  </si>
+  <si>
+    <t>Thewah</t>
+  </si>
+  <si>
+    <t>Mr. Bhavesh Garg</t>
+  </si>
+  <si>
+    <t>Smart Safety systems for vehicle</t>
+  </si>
+  <si>
+    <t>Mr. Apurva Agarwal</t>
+  </si>
+  <si>
+    <t>Healing Health</t>
+  </si>
+  <si>
+    <t>Mr. Soovam Biswal</t>
+  </si>
+  <si>
+    <t>Medecai.com</t>
+  </si>
+  <si>
     <t>Mr. Vipin Dixit</t>
   </si>
   <si>
-    <t>FarmaTech</t>
-  </si>
-  <si>
-    <t>Mr. Neelesh Kumar Yadav</t>
-  </si>
-  <si>
-    <t>Discount Bazar (Trackdeal)</t>
-  </si>
-  <si>
-    <t>Mr. Rajwardhan</t>
-  </si>
-  <si>
-    <t>Food O</t>
-  </si>
-  <si>
-    <t>Mr. Shubham Modi</t>
-  </si>
-  <si>
-    <t>Thewah</t>
-  </si>
-  <si>
-    <t>Mr. Bhavesh Garg</t>
-  </si>
-  <si>
-    <t>Smart Safety systems for vehicle</t>
-  </si>
-  <si>
-    <t>Mr. Apurva Agarwal</t>
-  </si>
-  <si>
-    <t>Healing Health</t>
-  </si>
-  <si>
-    <t>Mr. Soovam Biswal</t>
-  </si>
-  <si>
-    <t>Medecai.com</t>
-  </si>
-  <si>
     <t>Musiri-O(A part of TOWASO)</t>
   </si>
   <si>
@@ -249,140 +240,142 @@
   </si>
   <si>
     <t>14.07.2020</t>
+  </si>
+  <si>
+    <t>ww</t>
+  </si>
+  <si>
+    <t>,c,s</t>
+  </si>
+  <si>
+    <t>ssd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
-      <u/>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="3">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -397,39 +390,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -464,7 +457,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -508,161 +501,189 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="5" width="18" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="true" style="0"/>
+    <col min="3" max="3" width="25.85546875" customWidth="true" style="0"/>
+    <col min="4" max="4" width="18" customWidth="true" style="0"/>
+    <col min="5" max="5" width="18" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -677,7 +698,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -686,7 +707,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -701,7 +722,7 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -716,7 +737,7 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -731,7 +752,7 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -746,7 +767,7 @@
       </c>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -761,112 +782,112 @@
       </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="D14" s="9">
         <v>2018</v>
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -881,7 +902,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -896,7 +917,7 @@
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -911,7 +932,7 @@
       </c>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -926,7 +947,7 @@
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -941,7 +962,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -956,7 +977,7 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -971,7 +992,7 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -986,7 +1007,7 @@
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1001,7 +1022,7 @@
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1016,7 +1037,7 @@
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1031,7 +1052,7 @@
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1046,7 +1067,7 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1061,7 +1082,7 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1076,7 +1097,7 @@
       </c>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1091,7 +1112,7 @@
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1106,7 +1127,7 @@
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1121,7 +1142,7 @@
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1136,14 +1157,65 @@
       </c>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
+    <row r="33" spans="1:5" customHeight="1" ht="15.75">
+      <c r="A33" s="10">
+        <v>33</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34">
+        <v>122112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35">
+        <v>122112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="http://thinkmerit.in/"/>
+    <hyperlink ref="B4" r:id="rId_hyperlink_1"/>
   </hyperlinks>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Start_up list(with contact details).xlsx
+++ b/Start_up list(with contact details).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>ssd</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>30 November 2019</t>
   </si>
 </sst>
 </file>
@@ -669,7 +675,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="I12" sqref="I12"/>
@@ -1200,6 +1206,28 @@
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/Start_up list(with contact details).xlsx
+++ b/Start_up list(with contact details).xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="270" yWindow="600" windowWidth="20775" windowHeight="5835"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -240,61 +239,31 @@
   </si>
   <si>
     <t>14.07.2020</t>
-  </si>
-  <si>
-    <t>ww</t>
-  </si>
-  <si>
-    <t>,c,s</t>
-  </si>
-  <si>
-    <t>ssd</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>30 November 2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="4">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -305,17 +274,20 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -329,6 +301,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -337,51 +310,50 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -671,25 +643,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:E38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="28.42578125" customWidth="true" style="0"/>
-    <col min="3" max="3" width="25.85546875" customWidth="true" style="0"/>
-    <col min="4" max="4" width="18" customWidth="true" style="0"/>
-    <col min="5" max="5" width="18" customWidth="true" style="0"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" customHeight="1" ht="15.75" s="1" customFormat="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -704,7 +672,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="2" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -713,7 +681,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -728,7 +696,7 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="4" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -743,7 +711,7 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
+    <row r="5" spans="1:5" s="6" customFormat="1" ht="31.5" customHeight="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -758,7 +726,7 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="6" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -773,7 +741,7 @@
       </c>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="7" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -788,7 +756,7 @@
       </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="8" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -803,7 +771,7 @@
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="9" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -818,7 +786,7 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="10" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -833,7 +801,7 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="11" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -848,7 +816,7 @@
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
+    <row r="12" spans="1:5" s="6" customFormat="1" ht="31.5" customHeight="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -863,7 +831,7 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="13" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -878,7 +846,7 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="14" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -893,7 +861,7 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
+    <row r="15" spans="1:5" s="6" customFormat="1" ht="31.5" customHeight="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -908,7 +876,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="16" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -923,7 +891,7 @@
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="17" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -938,7 +906,7 @@
       </c>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="18" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -953,7 +921,7 @@
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
+    <row r="19" spans="1:5" s="6" customFormat="1" ht="31.5" customHeight="1">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -968,7 +936,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="20" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -983,7 +951,7 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="21" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -998,7 +966,7 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="22" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1013,7 +981,7 @@
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="23" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1028,7 +996,7 @@
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
+    <row r="24" spans="1:5" s="6" customFormat="1" ht="31.5" customHeight="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1043,7 +1011,7 @@
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
+    <row r="25" spans="1:5" s="6" customFormat="1" ht="31.5" customHeight="1">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1058,7 +1026,7 @@
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="26" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1073,7 +1041,7 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
+    <row r="27" spans="1:5" s="6" customFormat="1" ht="31.5" customHeight="1">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1088,7 +1056,7 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="28" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1103,7 +1071,7 @@
       </c>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="29" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1118,7 +1086,7 @@
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="30" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1133,7 +1101,7 @@
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
+    <row r="31" spans="1:5" s="6" customFormat="1" ht="31.5" customHeight="1">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1148,7 +1116,7 @@
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="32" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1163,87 +1131,15 @@
       </c>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" customHeight="1" ht="15.75">
-      <c r="A33" s="10">
-        <v>33</v>
-      </c>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34">
-        <v>122112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35">
-        <v>122112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36">
-        <v>36</v>
-      </c>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37">
-        <v>37</v>
-      </c>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" t="s">
-        <v>79</v>
-      </c>
+    <row r="33" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A33" s="10"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId_hyperlink_1"/>
+    <hyperlink ref="B4" r:id="rId1"/>
   </hyperlinks>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Start_up list(with contact details).xlsx
+++ b/Start_up list(with contact details).xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="600" windowWidth="20775" windowHeight="5835"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -239,31 +240,55 @@
   </si>
   <si>
     <t>14.07.2020</t>
+  </si>
+  <si>
+    <t>Jayant</t>
+  </si>
+  <si>
+    <t>Anand</t>
+  </si>
+  <si>
+    <t>30 November 2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <u/>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -274,20 +299,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="3">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -301,7 +323,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -310,50 +331,51 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -643,21 +665,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="5" width="18" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="true" style="0"/>
+    <col min="3" max="3" width="25.85546875" customWidth="true" style="0"/>
+    <col min="4" max="4" width="18" customWidth="true" style="0"/>
+    <col min="5" max="5" width="18" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" customHeight="1" ht="15.75" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -672,7 +698,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="2" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -681,7 +707,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -696,7 +722,7 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -711,7 +737,7 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" s="6" customFormat="1" ht="31.5" customHeight="1">
+    <row r="5" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -726,7 +752,7 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="6" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -741,7 +767,7 @@
       </c>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="7" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -756,7 +782,7 @@
       </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="8" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -771,7 +797,7 @@
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="9" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -786,7 +812,7 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="10" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -801,7 +827,7 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="11" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -816,7 +842,7 @@
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" s="6" customFormat="1" ht="31.5" customHeight="1">
+    <row r="12" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -831,7 +857,7 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="13" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -846,7 +872,7 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="14" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -861,7 +887,7 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" s="6" customFormat="1" ht="31.5" customHeight="1">
+    <row r="15" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -876,7 +902,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="16" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -891,7 +917,7 @@
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="17" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -906,7 +932,7 @@
       </c>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="18" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -921,7 +947,7 @@
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" s="6" customFormat="1" ht="31.5" customHeight="1">
+    <row r="19" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -936,7 +962,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -951,7 +977,7 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -966,7 +992,7 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -981,7 +1007,7 @@
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -996,7 +1022,7 @@
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" s="6" customFormat="1" ht="31.5" customHeight="1">
+    <row r="24" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1011,7 +1037,7 @@
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" s="6" customFormat="1" ht="31.5" customHeight="1">
+    <row r="25" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1026,7 +1052,7 @@
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1041,7 +1067,7 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" s="6" customFormat="1" ht="31.5" customHeight="1">
+    <row r="27" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1056,7 +1082,7 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1071,7 +1097,7 @@
       </c>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1086,7 +1112,7 @@
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1101,7 +1127,7 @@
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" s="6" customFormat="1" ht="31.5" customHeight="1">
+    <row r="31" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1116,7 +1142,7 @@
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1131,15 +1157,43 @@
       </c>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A33" s="10"/>
+    <row r="33" spans="1:5" customHeight="1" ht="15.75">
+      <c r="A33" s="10">
+        <v>33</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId_hyperlink_1"/>
   </hyperlinks>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Start_up list(with contact details).xlsx
+++ b/Start_up list(with contact details).xlsx
@@ -669,7 +669,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B41" sqref="B41"/>
@@ -1178,6 +1178,14 @@
       <c r="D34" t="s">
         <v>77</v>
       </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/Start_up list(with contact details).xlsx
+++ b/Start_up list(with contact details).xlsx
@@ -669,7 +669,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B41" sqref="B41"/>
@@ -1186,6 +1186,14 @@
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/Start_up list(with contact details).xlsx
+++ b/Start_up list(with contact details).xlsx
@@ -669,7 +669,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B41" sqref="B41"/>
@@ -1194,6 +1194,14 @@
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/Start_up list(with contact details).xlsx
+++ b/Start_up list(with contact details).xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -15,13 +15,248 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+  <si>
+    <t>Sl. No.</t>
+  </si>
+  <si>
+    <t>Name of the Start-up</t>
+  </si>
+  <si>
+    <t>Team Leader</t>
+  </si>
+  <si>
+    <t>Incubation Date</t>
+  </si>
+  <si>
+    <t>TOWASO Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>Mr. Saurabh Kumar</t>
+  </si>
+  <si>
+    <t>29.10.2015</t>
+  </si>
+  <si>
+    <t>Thinkmerit.in</t>
+  </si>
+  <si>
+    <t>Mr. Aditya Pilania</t>
+  </si>
+  <si>
+    <t>18.01.2016</t>
+  </si>
+  <si>
+    <t>SmartGriha</t>
+  </si>
+  <si>
+    <t>Mr. Animesh Chattopadhyaya</t>
+  </si>
+  <si>
+    <t>09.07.2018</t>
+  </si>
+  <si>
+    <t>Sadda Campus</t>
+  </si>
+  <si>
+    <t>Mr. Dhiraj Patel</t>
+  </si>
+  <si>
+    <t>Endorph Future Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>Mr. Rishiraj Agarwal</t>
+  </si>
+  <si>
+    <t>FarmaTech</t>
+  </si>
+  <si>
+    <t>Mr. Neelesh Kumar Yadav</t>
+  </si>
+  <si>
+    <t>Discount Bazar (Trackdeal)</t>
+  </si>
+  <si>
+    <t>Mr. Rajwardhan</t>
+  </si>
+  <si>
+    <t>Food O</t>
+  </si>
+  <si>
+    <t>Mr. Shubham Modi</t>
+  </si>
+  <si>
+    <t>Thewah</t>
+  </si>
+  <si>
+    <t>Mr. Bhavesh Garg</t>
+  </si>
+  <si>
+    <t>Smart Safety systems for vehicle</t>
+  </si>
+  <si>
+    <t>Mr. Apurva Agarwal</t>
+  </si>
+  <si>
+    <t>Healing Health</t>
+  </si>
+  <si>
+    <t>Mr. Soovam Biswal</t>
+  </si>
+  <si>
+    <t>Medecai.com</t>
+  </si>
+  <si>
+    <t>Mr. Vipin Dixit</t>
+  </si>
+  <si>
+    <t>Musiri-O(A part of TOWASO)</t>
+  </si>
+  <si>
+    <t>Miss Soni Kumari</t>
+  </si>
+  <si>
+    <t>Drone Eye</t>
+  </si>
+  <si>
+    <t>Sai Sumanth Kalluri</t>
+  </si>
+  <si>
+    <t>09.05.2019</t>
+  </si>
+  <si>
+    <t>Electric Hybrid Tricycle</t>
+  </si>
+  <si>
+    <t>Mr. Eklavya Singh</t>
+  </si>
+  <si>
+    <t>Krishi Support</t>
+  </si>
+  <si>
+    <t>Mr. Aman Gupta</t>
+  </si>
+  <si>
+    <t>Weblibox</t>
+  </si>
+  <si>
+    <t>Mr. Apoorv Varshney &amp; Mr. Aman Singh</t>
+  </si>
+  <si>
+    <t>World Build Supplier</t>
+  </si>
+  <si>
+    <t>Mr. Rajeshwar Yadav</t>
+  </si>
+  <si>
+    <t>Vernica Precision Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>Prof. Vivek Bajpai</t>
+  </si>
+  <si>
+    <t>05.12.2019</t>
+  </si>
+  <si>
+    <t>Aithingx Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>Prof. Tarachand Amgoth</t>
+  </si>
+  <si>
+    <t>13.01.2020</t>
+  </si>
+  <si>
+    <t>JSPR Agro Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>Mr. Hemlal Mahto</t>
+  </si>
+  <si>
+    <t>15.01.2020</t>
+  </si>
+  <si>
+    <t>S. S. Plugman Electrical Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>Mr. Sailesh Kumar Saw</t>
+  </si>
+  <si>
+    <t>22.01.2020</t>
+  </si>
+  <si>
+    <t>Generating Electricity from Trees</t>
+  </si>
+  <si>
+    <t>Mr. Kamalpreet Singh Jassal</t>
+  </si>
+  <si>
+    <t>28.02.2020</t>
+  </si>
+  <si>
+    <t>Green Cigar</t>
+  </si>
+  <si>
+    <t>Mr. Kartik Sareen</t>
+  </si>
+  <si>
+    <t>Platform for Hobbyists to learn and earn</t>
+  </si>
+  <si>
+    <t>Mr. Parth Khanna &amp; Mr. Saswata Som</t>
+  </si>
+  <si>
+    <t>There4u</t>
+  </si>
+  <si>
+    <t>Mr. Naman Khetan</t>
+  </si>
+  <si>
+    <t>AI- based model photography</t>
+  </si>
+  <si>
+    <t>Mr. Hitesh Kumar</t>
+  </si>
+  <si>
+    <t>Bookspace</t>
+  </si>
+  <si>
+    <t>Mr. Apoorva Raj Bhadani</t>
+  </si>
+  <si>
+    <t>Elitech Earth Science Private Limited</t>
+  </si>
+  <si>
+    <t>Mr. Ajit Singh Choudhary</t>
+  </si>
+  <si>
+    <t>17.06.2020</t>
+  </si>
+  <si>
+    <t>NAVACHARITAM</t>
+  </si>
+  <si>
+    <t>Mr. Sanchit Kumar</t>
+  </si>
+  <si>
+    <t>14.07.2020</t>
+  </si>
+  <si>
+    <t>Jayant</t>
+  </si>
+  <si>
+    <t>Anand</t>
+  </si>
+  <si>
+    <t>30 November 2019</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -29,6 +264,33 @@
       <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -46,15 +308,67 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -355,27 +669,548 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="2" max="2" width="28.42578125" customWidth="true" style="0"/>
+    <col min="3" max="3" width="25.85546875" customWidth="true" style="0"/>
+    <col min="4" max="4" width="18" customWidth="true" style="0"/>
+    <col min="5" max="5" width="18" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1">
+    <row r="1" spans="1:5" customHeight="1" ht="15.75" s="1" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="9">
+        <v>2018</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2018</v>
+      </c>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" customHeight="1" ht="15.75">
+      <c r="A33" s="10">
+        <v>33</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId_hyperlink_1"/>
+  </hyperlinks>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/Start_up list(with contact details).xlsx
+++ b/Start_up list(with contact details).xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="270" yWindow="600" windowWidth="20775" windowHeight="5835"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -35,27 +34,18 @@
     <t>Mr. Saurabh Kumar</t>
   </si>
   <si>
-    <t>29.10.2015</t>
-  </si>
-  <si>
     <t>Thinkmerit.in</t>
   </si>
   <si>
     <t>Mr. Aditya Pilania</t>
   </si>
   <si>
-    <t>18.01.2016</t>
-  </si>
-  <si>
     <t>SmartGriha</t>
   </si>
   <si>
     <t>Mr. Animesh Chattopadhyaya</t>
   </si>
   <si>
-    <t>09.07.2018</t>
-  </si>
-  <si>
     <t>Sadda Campus</t>
   </si>
   <si>
@@ -122,9 +112,6 @@
     <t>Sai Sumanth Kalluri</t>
   </si>
   <si>
-    <t>09.05.2019</t>
-  </si>
-  <si>
     <t>Electric Hybrid Tricycle</t>
   </si>
   <si>
@@ -155,45 +142,30 @@
     <t>Prof. Vivek Bajpai</t>
   </si>
   <si>
-    <t>05.12.2019</t>
-  </si>
-  <si>
     <t>Aithingx Pvt. Ltd.</t>
   </si>
   <si>
     <t>Prof. Tarachand Amgoth</t>
   </si>
   <si>
-    <t>13.01.2020</t>
-  </si>
-  <si>
     <t>JSPR Agro Pvt. Ltd.</t>
   </si>
   <si>
     <t>Mr. Hemlal Mahto</t>
   </si>
   <si>
-    <t>15.01.2020</t>
-  </si>
-  <si>
     <t>S. S. Plugman Electrical Pvt. Ltd.</t>
   </si>
   <si>
     <t>Mr. Sailesh Kumar Saw</t>
   </si>
   <si>
-    <t>22.01.2020</t>
-  </si>
-  <si>
     <t>Generating Electricity from Trees</t>
   </si>
   <si>
     <t>Mr. Kamalpreet Singh Jassal</t>
   </si>
   <si>
-    <t>28.02.2020</t>
-  </si>
-  <si>
     <t>Green Cigar</t>
   </si>
   <si>
@@ -230,65 +202,35 @@
     <t>Mr. Ajit Singh Choudhary</t>
   </si>
   <si>
-    <t>17.06.2020</t>
-  </si>
-  <si>
     <t>NAVACHARITAM</t>
   </si>
   <si>
     <t>Mr. Sanchit Kumar</t>
-  </si>
-  <si>
-    <t>14.07.2020</t>
-  </si>
-  <si>
-    <t>Jayant</t>
-  </si>
-  <si>
-    <t>Anand</t>
-  </si>
-  <si>
-    <t>30 November 2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="4">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -299,17 +241,20 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -323,6 +268,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -331,51 +277,50 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -665,25 +610,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:E37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="28.42578125" customWidth="true" style="0"/>
-    <col min="3" max="3" width="25.85546875" customWidth="true" style="0"/>
-    <col min="4" max="4" width="18" customWidth="true" style="0"/>
-    <col min="5" max="5" width="18" customWidth="true" style="0"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" customHeight="1" ht="15.75" s="1" customFormat="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -698,46 +639,52 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="2" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9">
+        <v>2015</v>
+      </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>4</v>
+      <c r="B3" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2016</v>
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="4" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>7</v>
+      <c r="B4" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="D4" s="9">
+        <v>2018</v>
+      </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
+    <row r="5" spans="1:5" s="6" customFormat="1" ht="31.5" customHeight="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -747,477 +694,414 @@
       <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>12</v>
+      <c r="D5" s="9">
+        <v>2018</v>
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="6" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>12</v>
+      <c r="D6" s="9">
+        <v>2018</v>
       </c>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="7" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>12</v>
+      <c r="D7" s="9">
+        <v>2018</v>
       </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="8" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>12</v>
+      <c r="D8" s="9">
+        <v>2018</v>
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="9" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>12</v>
+      <c r="D9" s="9">
+        <v>2018</v>
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="10" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>12</v>
+      <c r="D10" s="9">
+        <v>2018</v>
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="11" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>12</v>
+      <c r="D11" s="9">
+        <v>2018</v>
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
+    <row r="12" spans="1:5" s="6" customFormat="1" ht="31.5" customHeight="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>12</v>
+      <c r="D12" s="9">
+        <v>2018</v>
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="13" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>12</v>
+      <c r="D13" s="9">
+        <v>2018</v>
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="14" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="D14" s="9">
         <v>2018</v>
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
+    <row r="15" spans="1:5" s="6" customFormat="1" ht="31.5" customHeight="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="D15" s="9">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="16" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>35</v>
+      <c r="D16" s="9">
+        <v>2019</v>
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="17" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="9" t="s">
         <v>35</v>
       </c>
+      <c r="D17" s="9">
+        <v>2019</v>
+      </c>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="18" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>35</v>
+      <c r="B18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="9">
+        <v>2019</v>
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
+    <row r="19" spans="1:5" s="6" customFormat="1" ht="31.5" customHeight="1">
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>35</v>
+      <c r="B19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2019</v>
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="20" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="D20" s="9">
+        <v>2019</v>
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="21" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2020</v>
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="22" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="D22" s="9">
+        <v>2020</v>
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="23" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="D23" s="9">
+        <v>2020</v>
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
+    <row r="24" spans="1:5" s="6" customFormat="1" ht="31.5" customHeight="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="D24" s="9">
+        <v>2020</v>
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
+    <row r="25" spans="1:5" s="6" customFormat="1" ht="31.5" customHeight="1">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
+      </c>
+      <c r="D25" s="9">
+        <v>2020</v>
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="26" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="D26" s="9">
+        <v>2020</v>
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
+    <row r="27" spans="1:5" s="6" customFormat="1" ht="31.5" customHeight="1">
       <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="D27" s="9">
+        <v>2020</v>
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="28" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="D28" s="9">
+        <v>2020</v>
       </c>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="29" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="D29" s="9">
+        <v>2020</v>
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
+    <row r="30" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="D30" s="9">
+        <v>2020</v>
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" customHeight="1" ht="31.5" s="6" customFormat="1">
+    <row r="31" spans="1:5" s="6" customFormat="1" ht="31.5" customHeight="1">
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>71</v>
+      <c r="B31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="9">
+        <v>2020</v>
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" customHeight="1" ht="15.75" s="6" customFormat="1">
-      <c r="A32" s="4">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>74</v>
-      </c>
+    <row r="32" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A32" s="4"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" customHeight="1" ht="15.75">
-      <c r="A33" s="10">
-        <v>33</v>
-      </c>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35">
-        <v>35</v>
-      </c>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36">
-        <v>36</v>
-      </c>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37">
-        <v>37</v>
-      </c>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
+    <row r="33" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A33" s="10"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId_hyperlink_1"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Start_up list(with contact details).xlsx
+++ b/Start_up list(with contact details).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="600" windowWidth="20775" windowHeight="5835"/>
+    <workbookView xWindow="150" yWindow="615" windowWidth="28455" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1102,6 +1102,6 @@
     <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>